--- a/Test Data Driven/AI-Generated/TC8-Configure Web Services and Integrations.xlsx
+++ b/Test Data Driven/AI-Generated/TC8-Configure Web Services and Integrations.xlsx
@@ -449,11 +449,11 @@
     <col width="125" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="36" customWidth="1" min="4" max="4"/>
-    <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="44" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
-    <col width="31" customWidth="1" min="8" max="8"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,27 +474,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>div_testingFrameworks_internalText</t>
+          <t>div_testingTools_internalText</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>div_testingFrameworks_internalText_1</t>
+          <t>div_testingTools_internalText_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>link_projectExecution_internalRoleLinkName</t>
+          <t>link_projectLinks_internalRoleLinkName</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>link_projectExecution_project_id</t>
+          <t>link_projectLinks_project_id</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>link_projectExecution_team_id</t>
+          <t>link_projectLinks_team_id</t>
         </is>
       </c>
     </row>
